--- a/RAF_CNN_correctVany/Stats/Summary_RAF_C10.xlsx
+++ b/RAF_CNN_correctVany/Stats/Summary_RAF_C10.xlsx
@@ -1,135 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="30">
-  <si>
-    <t>Dataset</t>
-  </si>
-  <si>
-    <t>Run ID</t>
-  </si>
-  <si>
-    <t>S1_Train_Acc</t>
-  </si>
-  <si>
-    <t>S1_Train_Loss</t>
-  </si>
-  <si>
-    <t>S1_Test_Acc</t>
-  </si>
-  <si>
-    <t>S1_Test_Loss</t>
-  </si>
-  <si>
-    <t>S2_Train_Acc</t>
-  </si>
-  <si>
-    <t>S2_Train_Loss</t>
-  </si>
-  <si>
-    <t>S2_Test_Acc</t>
-  </si>
-  <si>
-    <t>S2_Test_Loss</t>
-  </si>
-  <si>
-    <t>S3_Start_Train_Acc</t>
-  </si>
-  <si>
-    <t>S3_Start_Train_Loss</t>
-  </si>
-  <si>
-    <t>S3_Start_Test_Acc</t>
-  </si>
-  <si>
-    <t>S3_Start_Test_Loss</t>
-  </si>
-  <si>
-    <t>S3_Train_Acc</t>
-  </si>
-  <si>
-    <t>S3_Train_Loss</t>
-  </si>
-  <si>
-    <t>S3_Test_Acc</t>
-  </si>
-  <si>
-    <t>S3_Test_Loss</t>
-  </si>
-  <si>
-    <t>TrainDiff</t>
-  </si>
-  <si>
-    <t>TestDiff</t>
-  </si>
-  <si>
-    <t>KMNIST</t>
-  </si>
-  <si>
-    <t>Food101</t>
-  </si>
-  <si>
-    <t>SVHN</t>
-  </si>
-  <si>
-    <t>USPS</t>
-  </si>
-  <si>
-    <t>office31</t>
-  </si>
-  <si>
-    <t>MNIST</t>
-  </si>
-  <si>
-    <t>CIFAR10</t>
-  </si>
-  <si>
-    <t>FashionMNIST</t>
-  </si>
-  <si>
-    <t>Caltech101</t>
-  </si>
-  <si>
-    <t>Average</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -144,35 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -460,634 +420,716 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:T10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:20">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>19</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Run ID</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>S1_Train_Acc</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>S1_Train_Loss</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>S1_Test_Acc</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>S1_Test_Loss</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>S2_Train_Acc</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>S2_Train_Loss</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>S2_Test_Acc</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>S2_Test_Loss</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>S3_Start_Train_Acc</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>S3_Start_Train_Loss</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>S3_Start_Test_Acc</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>S3_Start_Test_Loss</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>S3_Train_Acc</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>S3_Train_Loss</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>S3_Test_Acc</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>S3_Test_Loss</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>TrainDiff</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>TestDiff</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:20">
-      <c r="A2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2">
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>KMNIST</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
         <v>99.97791666666667</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="n">
         <v>0.002356775350059825</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="n">
         <v>96.83499999999999</v>
       </c>
-      <c r="F2">
+      <c r="F2" t="n">
         <v>0.1650107940472662</v>
       </c>
-      <c r="G2">
+      <c r="G2" t="n">
         <v>99.97833333333334</v>
       </c>
-      <c r="H2">
+      <c r="H2" t="n">
         <v>0.00260771603667315</v>
       </c>
-      <c r="I2">
+      <c r="I2" t="n">
         <v>96.8325</v>
       </c>
-      <c r="J2">
+      <c r="J2" t="n">
         <v>0.1645966738725081</v>
       </c>
-      <c r="K2">
+      <c r="K2" t="n">
         <v>99.16791666666667</v>
       </c>
-      <c r="L2">
+      <c r="L2" t="n">
         <v>0.02332924118051105</v>
       </c>
-      <c r="M2">
+      <c r="M2" t="n">
         <v>96.13499999999999</v>
       </c>
-      <c r="N2">
+      <c r="N2" t="n">
         <v>0.1948382950519677</v>
       </c>
-      <c r="O2">
+      <c r="O2" t="n">
         <v>99.96749999999999</v>
       </c>
-      <c r="P2">
+      <c r="P2" t="n">
         <v>0.00352872634835205</v>
       </c>
-      <c r="Q2">
+      <c r="Q2" t="n">
         <v>96.76499999999999</v>
       </c>
-      <c r="R2">
+      <c r="R2" t="n">
         <v>0.169602197895263</v>
       </c>
-      <c r="S2">
+      <c r="S2" t="n">
         <v>-0.0108333333333519</v>
       </c>
-      <c r="T2">
+      <c r="T2" t="n">
         <v>-0.06750000000000966</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
-      <c r="A3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3">
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Food101</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
         <v>88.952</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="n">
         <v>0.3224266067147254</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="n">
         <v>60.176</v>
       </c>
-      <c r="F3">
+      <c r="F3" t="n">
         <v>1.621552347210497</v>
       </c>
-      <c r="G3">
+      <c r="G3" t="n">
         <v>88.952</v>
       </c>
-      <c r="H3">
+      <c r="H3" t="n">
         <v>0.3224266067147254</v>
       </c>
-      <c r="I3">
+      <c r="I3" t="n">
         <v>60.176</v>
       </c>
-      <c r="J3">
+      <c r="J3" t="n">
         <v>1.621552347210497</v>
       </c>
-      <c r="K3">
+      <c r="K3" t="n">
         <v>82.05066666666667</v>
       </c>
-      <c r="L3">
+      <c r="L3" t="n">
         <v>0.5539875377444426</v>
       </c>
-      <c r="M3">
+      <c r="M3" t="n">
         <v>59.984</v>
       </c>
-      <c r="N3">
+      <c r="N3" t="n">
         <v>1.639445261012316</v>
       </c>
-      <c r="O3">
+      <c r="O3" t="n">
         <v>92.8</v>
       </c>
-      <c r="P3">
+      <c r="P3" t="n">
         <v>0.2146321327930663</v>
       </c>
-      <c r="Q3">
+      <c r="Q3" t="n">
         <v>62.624</v>
       </c>
-      <c r="R3">
+      <c r="R3" t="n">
         <v>1.629792822202444</v>
       </c>
-      <c r="S3">
+      <c r="S3" t="n">
         <v>3.847999999999999</v>
       </c>
-      <c r="T3">
+      <c r="T3" t="n">
         <v>2.448</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
-      <c r="A4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4">
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>SVHN</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
         <v>97.15203552789039</v>
       </c>
-      <c r="D4">
+      <c r="D4" t="n">
         <v>0.1123241157635634</v>
       </c>
-      <c r="E4">
+      <c r="E4" t="n">
         <v>93.59250153657037</v>
       </c>
-      <c r="F4">
+      <c r="F4" t="n">
         <v>0.2278244315439183</v>
       </c>
-      <c r="G4">
+      <c r="G4" t="n">
         <v>97.31857251411697</v>
       </c>
-      <c r="H4">
+      <c r="H4" t="n">
         <v>0.09136445709006663</v>
       </c>
-      <c r="I4">
+      <c r="I4" t="n">
         <v>92.80628969473469</v>
       </c>
-      <c r="J4">
+      <c r="J4" t="n">
         <v>0.2906621066720603</v>
       </c>
-      <c r="K4">
+      <c r="K4" t="n">
         <v>97.21255306660113</v>
       </c>
-      <c r="L4">
+      <c r="L4" t="n">
         <v>0.1125017302195418</v>
       </c>
-      <c r="M4">
+      <c r="M4" t="n">
         <v>93.0841528375333</v>
       </c>
-      <c r="N4">
+      <c r="N4" t="n">
         <v>0.2429946147682382</v>
       </c>
-      <c r="O4">
+      <c r="O4" t="n">
         <v>96.79211542924224</v>
       </c>
-      <c r="P4">
+      <c r="P4" t="n">
         <v>0.1117237608898783</v>
       </c>
-      <c r="Q4">
+      <c r="Q4" t="n">
         <v>93.03293382503585</v>
       </c>
-      <c r="R4">
+      <c r="R4" t="n">
         <v>0.2488592348258604</v>
       </c>
-      <c r="S4">
+      <c r="S4" t="n">
         <v>-0.5264570848747212</v>
       </c>
-      <c r="T4">
+      <c r="T4" t="n">
         <v>0.2266441303011675</v>
       </c>
     </row>
-    <row r="5" spans="1:20">
-      <c r="A5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5">
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>USPS</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
         <v>99.32519544644082</v>
       </c>
-      <c r="D5">
+      <c r="D5" t="n">
         <v>0.02145783070686498</v>
       </c>
-      <c r="E5">
+      <c r="E5" t="n">
         <v>97.68809167912306</v>
       </c>
-      <c r="F5">
+      <c r="F5" t="n">
         <v>0.09408865501105657</v>
       </c>
-      <c r="G5">
+      <c r="G5" t="n">
         <v>99.32519544644082</v>
       </c>
-      <c r="H5">
+      <c r="H5" t="n">
         <v>0.02145783070686498</v>
       </c>
-      <c r="I5">
+      <c r="I5" t="n">
         <v>97.68809167912306</v>
       </c>
-      <c r="J5">
+      <c r="J5" t="n">
         <v>0.09408865501105657</v>
       </c>
-      <c r="K5">
+      <c r="K5" t="n">
         <v>98.58729941023179</v>
       </c>
-      <c r="L5">
+      <c r="L5" t="n">
         <v>0.04229278679294095</v>
       </c>
-      <c r="M5">
+      <c r="M5" t="n">
         <v>97.15994020926756</v>
       </c>
-      <c r="N5">
+      <c r="N5" t="n">
         <v>0.1156657036847245</v>
       </c>
-      <c r="O5">
+      <c r="O5" t="n">
         <v>99.52544232615554</v>
       </c>
-      <c r="P5">
+      <c r="P5" t="n">
         <v>0.01629658219322308</v>
       </c>
-      <c r="Q5">
+      <c r="Q5" t="n">
         <v>97.85749875435974</v>
       </c>
-      <c r="R5">
+      <c r="R5" t="n">
         <v>0.08912096424571922</v>
       </c>
-      <c r="S5">
+      <c r="S5" t="n">
         <v>0.2002468797147259</v>
       </c>
-      <c r="T5">
+      <c r="T5" t="n">
         <v>0.169407075236677</v>
       </c>
     </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6">
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>office31</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
         <v>96.2200532386868</v>
       </c>
-      <c r="D6">
+      <c r="D6" t="n">
         <v>0.1582744755788288</v>
       </c>
-      <c r="E6">
+      <c r="E6" t="n">
         <v>58.47246891651865</v>
       </c>
-      <c r="F6">
+      <c r="F6" t="n">
         <v>2.189050967523957</v>
       </c>
-      <c r="G6">
+      <c r="G6" t="n">
         <v>96.2200532386868</v>
       </c>
-      <c r="H6">
+      <c r="H6" t="n">
         <v>0.1582744755788288</v>
       </c>
-      <c r="I6">
+      <c r="I6" t="n">
         <v>58.47246891651865</v>
       </c>
-      <c r="J6">
+      <c r="J6" t="n">
         <v>2.189050967523957</v>
       </c>
-      <c r="K6">
+      <c r="K6" t="n">
         <v>85.89174800354925</v>
       </c>
-      <c r="L6">
+      <c r="L6" t="n">
         <v>0.5212725933214786</v>
       </c>
-      <c r="M6">
+      <c r="M6" t="n">
         <v>62.16696269982238</v>
       </c>
-      <c r="N6">
+      <c r="N6" t="n">
         <v>1.55008833222025</v>
       </c>
-      <c r="O6">
+      <c r="O6" t="n">
         <v>76.16681455190772</v>
       </c>
-      <c r="P6">
+      <c r="P6" t="n">
         <v>0.8055753239327007</v>
       </c>
-      <c r="Q6">
+      <c r="Q6" t="n">
         <v>62.7708703374778</v>
       </c>
-      <c r="R6">
+      <c r="R6" t="n">
         <v>1.54749990538636</v>
       </c>
-      <c r="S6">
+      <c r="S6" t="n">
         <v>-20.05323868677908</v>
       </c>
-      <c r="T6">
+      <c r="T6" t="n">
         <v>4.298401420959152</v>
       </c>
     </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7">
-        <v>97.47166667</v>
-      </c>
-      <c r="D7">
-        <v>0.081294358</v>
-      </c>
-      <c r="E7">
-        <v>97.58</v>
-      </c>
-      <c r="F7">
-        <v>0.079959643</v>
-      </c>
-      <c r="G7">
-        <v>97.47166667</v>
-      </c>
-      <c r="H7">
-        <v>0.081294358</v>
-      </c>
-      <c r="I7">
-        <v>97.58</v>
-      </c>
-      <c r="J7">
-        <v>0.079959643</v>
-      </c>
-      <c r="K7">
-        <v>97.06666666666666</v>
-      </c>
-      <c r="L7">
-        <v>0.0930028984442353</v>
-      </c>
-      <c r="M7">
-        <v>96.63</v>
-      </c>
-      <c r="N7">
-        <v>0.1074104424662888</v>
-      </c>
-      <c r="O7">
-        <v>97.70333333333332</v>
-      </c>
-      <c r="P7">
-        <v>0.0746910561625508</v>
-      </c>
-      <c r="Q7">
-        <v>97.33</v>
-      </c>
-      <c r="R7">
-        <v>0.0827205495223403</v>
-      </c>
-      <c r="S7">
-        <v>0.2316666633333142</v>
-      </c>
-      <c r="T7">
-        <v>-0.25</v>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>MNIST</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>99.481666666</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.0182127796</v>
+      </c>
+      <c r="E7" t="n">
+        <v>98.37199999999999</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.0638834942</v>
+      </c>
+      <c r="G7" t="n">
+        <v>99.478000002</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.0184835318</v>
+      </c>
+      <c r="I7" t="n">
+        <v>98.354</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.0642748788</v>
+      </c>
+      <c r="K7" t="n">
+        <v>98.94433333333333</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.03222257548945328</v>
+      </c>
+      <c r="M7" t="n">
+        <v>97.842</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.0850497754529351</v>
+      </c>
+      <c r="O7" t="n">
+        <v>99.74533333333333</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.00963949910157528</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>98.47599999999998</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0.06353750237642378</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.267333331333333</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0.1219999999999857</v>
       </c>
     </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8">
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>CIFAR10</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
         <v>93.86360000000001</v>
       </c>
-      <c r="D8">
+      <c r="D8" t="n">
         <v>0.1955720712271188</v>
       </c>
-      <c r="E8">
+      <c r="E8" t="n">
         <v>78.71400000000001</v>
       </c>
-      <c r="F8">
+      <c r="F8" t="n">
         <v>0.7211501465988158</v>
       </c>
-      <c r="G8">
+      <c r="G8" t="n">
         <v>95.5228</v>
       </c>
-      <c r="H8">
+      <c r="H8" t="n">
         <v>0.1256032533229083</v>
       </c>
-      <c r="I8">
+      <c r="I8" t="n">
         <v>77.428</v>
       </c>
-      <c r="J8">
+      <c r="J8" t="n">
         <v>1.059412180709839</v>
       </c>
-      <c r="K8">
+      <c r="K8" t="n">
         <v>95.67240000000001</v>
       </c>
-      <c r="L8">
+      <c r="L8" t="n">
         <v>0.1603472680163383</v>
       </c>
-      <c r="M8">
+      <c r="M8" t="n">
         <v>78.648</v>
       </c>
-      <c r="N8">
+      <c r="N8" t="n">
         <v>0.7238208132362366</v>
       </c>
-      <c r="O8">
+      <c r="O8" t="n">
         <v>93.49000000000001</v>
       </c>
-      <c r="P8">
+      <c r="P8" t="n">
         <v>0.1858130268438164</v>
       </c>
-      <c r="Q8">
+      <c r="Q8" t="n">
         <v>77.622</v>
       </c>
-      <c r="R8">
+      <c r="R8" t="n">
         <v>0.8205667031478882</v>
       </c>
-      <c r="S8">
+      <c r="S8" t="n">
         <v>-2.032799999999995</v>
       </c>
-      <c r="T8">
+      <c r="T8" t="n">
         <v>0.1940000000000026</v>
       </c>
     </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9">
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>FashionMNIST</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
         <v>94.03933333333332</v>
       </c>
-      <c r="D9">
+      <c r="D9" t="n">
         <v>0.166167557336363</v>
       </c>
-      <c r="E9">
+      <c r="E9" t="n">
         <v>90.53400000000001</v>
       </c>
-      <c r="F9">
+      <c r="F9" t="n">
         <v>0.2796693276819993</v>
       </c>
-      <c r="G9">
+      <c r="G9" t="n">
         <v>93.95599999999999</v>
       </c>
-      <c r="H9">
+      <c r="H9" t="n">
         <v>0.1676193988869041</v>
       </c>
-      <c r="I9">
+      <c r="I9" t="n">
         <v>90.47799999999998</v>
       </c>
-      <c r="J9">
+      <c r="J9" t="n">
         <v>0.280616197922847</v>
       </c>
-      <c r="K9">
+      <c r="K9" t="n">
         <v>93.91833333333334</v>
       </c>
-      <c r="L9">
+      <c r="L9" t="n">
         <v>0.1680717190126578</v>
       </c>
-      <c r="M9">
+      <c r="M9" t="n">
         <v>90.42999999999999</v>
       </c>
-      <c r="N9">
+      <c r="N9" t="n">
         <v>0.2819534191465378</v>
       </c>
-      <c r="O9">
+      <c r="O9" t="n">
         <v>93.94800000000001</v>
       </c>
-      <c r="P9">
+      <c r="P9" t="n">
         <v>0.1681319425081107</v>
       </c>
-      <c r="Q9">
+      <c r="Q9" t="n">
         <v>90.47</v>
       </c>
-      <c r="R9">
+      <c r="R9" t="n">
         <v>0.2811810267782212</v>
       </c>
-      <c r="S9">
+      <c r="S9" t="n">
         <v>-0.007999999999981355</v>
       </c>
-      <c r="T9">
+      <c r="T9" t="n">
         <v>-0.007999999999981355</v>
       </c>
     </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10">
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Caltech101</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
         <v>96.41526886948712</v>
       </c>
-      <c r="D10">
+      <c r="D10" t="n">
         <v>0.1681624520576741</v>
       </c>
-      <c r="E10">
+      <c r="E10" t="n">
         <v>65.51577475232273</v>
       </c>
-      <c r="F10">
+      <c r="F10" t="n">
         <v>1.611495787200929</v>
       </c>
-      <c r="G10">
+      <c r="G10" t="n">
         <v>96.41526886948712</v>
       </c>
-      <c r="H10">
+      <c r="H10" t="n">
         <v>0.1681624520576741</v>
       </c>
-      <c r="I10">
+      <c r="I10" t="n">
         <v>65.51577475232273</v>
       </c>
-      <c r="J10">
+      <c r="J10" t="n">
         <v>1.611495787200929</v>
       </c>
-      <c r="K10">
+      <c r="K10" t="n">
         <v>88.58328211432084</v>
       </c>
-      <c r="L10">
+      <c r="L10" t="n">
         <v>0.5453423902532057</v>
       </c>
-      <c r="M10">
+      <c r="M10" t="n">
         <v>73.05209774089442</v>
       </c>
-      <c r="N10">
+      <c r="N10" t="n">
         <v>1.346418207893453</v>
       </c>
-      <c r="O10">
+      <c r="O10" t="n">
         <v>98.43269821757838</v>
       </c>
-      <c r="P10">
+      <c r="P10" t="n">
         <v>0.1083950271108644</v>
       </c>
-      <c r="Q10">
-        <v>69.6288612263716</v>
-      </c>
-      <c r="R10">
+      <c r="Q10" t="n">
+        <v>69.62886122637161</v>
+      </c>
+      <c r="R10" t="n">
         <v>1.281406453467559</v>
       </c>
-      <c r="S10">
+      <c r="S10" t="n">
         <v>2.017429348091255</v>
       </c>
-      <c r="T10">
-        <v>4.11308647404887</v>
+      <c r="T10" t="n">
+        <v>4.113086474048885</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>